--- a/Jeu de donnee.xlsx
+++ b/Jeu de donnee.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adurtis\Documents\Prosit\Base de donnée\Projet BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxence\Documents\Projet BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9645" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="239">
   <si>
     <t>ID_Client</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Donne_Diluant</t>
   </si>
   <si>
-    <t>ID_Infredient</t>
-  </si>
-  <si>
     <t>Donne_ingredient</t>
   </si>
   <si>
@@ -270,12 +267,486 @@
   </si>
   <si>
     <t xml:space="preserve">Donne_recipient </t>
+  </si>
+  <si>
+    <t>ID_Ingredient</t>
+  </si>
+  <si>
+    <t>ID_Onguent</t>
+  </si>
+  <si>
+    <t>Est_Compose</t>
+  </si>
+  <si>
+    <t>pierre dubois</t>
+  </si>
+  <si>
+    <t>pdubois@hotmail.fr</t>
+  </si>
+  <si>
+    <t>jean ratae</t>
+  </si>
+  <si>
+    <t>jean.ratae@gmail.com</t>
+  </si>
+  <si>
+    <t>louis manart</t>
+  </si>
+  <si>
+    <t>louismanart@free.com</t>
+  </si>
+  <si>
+    <t>albert muisse</t>
+  </si>
+  <si>
+    <t>amuisse@gmail.fr</t>
+  </si>
+  <si>
+    <t>henri kaval</t>
+  </si>
+  <si>
+    <t>hikaval@hotmail.com</t>
+  </si>
+  <si>
+    <t>polo damido</t>
+  </si>
+  <si>
+    <t>polodam@orange.fr</t>
+  </si>
+  <si>
+    <t>lea brouha</t>
+  </si>
+  <si>
+    <t>leabrobro@hotmail.fr</t>
+  </si>
+  <si>
+    <t>Nom_Fournisseur</t>
+  </si>
+  <si>
+    <t>Tel_Fournisseur</t>
+  </si>
+  <si>
+    <t>Mail_Fournisseur</t>
+  </si>
+  <si>
+    <t>Fournisseur</t>
+  </si>
+  <si>
+    <t>racines de marguerite</t>
+  </si>
+  <si>
+    <t>9.000</t>
+  </si>
+  <si>
+    <t>chenilles</t>
+  </si>
+  <si>
+    <t>5.000</t>
+  </si>
+  <si>
+    <t>orties sechees</t>
+  </si>
+  <si>
+    <t>4.000</t>
+  </si>
+  <si>
+    <t>crochets de serpent</t>
+  </si>
+  <si>
+    <t>12.000</t>
+  </si>
+  <si>
+    <t>epines de poro</t>
+  </si>
+  <si>
+    <t>3.000</t>
+  </si>
+  <si>
+    <t>foie de rat</t>
+  </si>
+  <si>
+    <t>8.000</t>
+  </si>
+  <si>
+    <t>poudre de pierre</t>
+  </si>
+  <si>
+    <t>18.000</t>
+  </si>
+  <si>
+    <t>sirop d ellebore</t>
+  </si>
+  <si>
+    <t>15.000</t>
+  </si>
+  <si>
+    <t>aile d aigle</t>
+  </si>
+  <si>
+    <t>20.000</t>
+  </si>
+  <si>
+    <t>plume de phenix</t>
+  </si>
+  <si>
+    <t>oeuf de dragon</t>
+  </si>
+  <si>
+    <t>100.000</t>
+  </si>
+  <si>
+    <t>ecaille de dragon</t>
+  </si>
+  <si>
+    <t>23.000</t>
+  </si>
+  <si>
+    <t>racines de valeriane</t>
+  </si>
+  <si>
+    <t>feuille soporifique</t>
+  </si>
+  <si>
+    <t>armoise</t>
+  </si>
+  <si>
+    <t>scarabees</t>
+  </si>
+  <si>
+    <t>40.000</t>
+  </si>
+  <si>
+    <t>racines de gingembre</t>
+  </si>
+  <si>
+    <t>bile de tatou</t>
+  </si>
+  <si>
+    <t>baies de gui</t>
+  </si>
+  <si>
+    <t>13.000</t>
+  </si>
+  <si>
+    <t>brins de valeriane</t>
+  </si>
+  <si>
+    <t>corne de dragon</t>
+  </si>
+  <si>
+    <t>120.000</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>Nom_Ingredient</t>
+  </si>
+  <si>
+    <t>Prix_Ingredient</t>
+  </si>
+  <si>
+    <t>Temps_Conservation</t>
+  </si>
+  <si>
+    <t>Seuil_Fraicheur</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
+  </si>
+  <si>
+    <t>ID_Ingredient_en_Stock</t>
+  </si>
+  <si>
+    <t>Date_Entrer</t>
+  </si>
+  <si>
+    <t>Arrive_Depuis</t>
+  </si>
+  <si>
+    <t>Quantite_Ingredient</t>
+  </si>
+  <si>
+    <t>Ingredient_en_Stock</t>
+  </si>
+  <si>
+    <t>Alu</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Arn</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Starnge</t>
+  </si>
+  <si>
+    <t>Era</t>
+  </si>
+  <si>
+    <t>Gon</t>
+  </si>
+  <si>
+    <t>Natsu</t>
+  </si>
+  <si>
+    <t>Dragnir</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Morganne</t>
+  </si>
+  <si>
+    <t>Jaf</t>
+  </si>
+  <si>
+    <t>Har</t>
+  </si>
+  <si>
+    <t>Kart</t>
+  </si>
+  <si>
+    <t>Hus</t>
+  </si>
+  <si>
+    <t>Zel</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>Dumbledore</t>
+  </si>
+  <si>
+    <t>Albus</t>
+  </si>
+  <si>
+    <t>ID_Inventeur</t>
+  </si>
+  <si>
+    <t>Nom_Inventeur</t>
+  </si>
+  <si>
+    <t>Prenom_Inventeur</t>
+  </si>
+  <si>
+    <t>Inventeur</t>
+  </si>
+  <si>
+    <t>Poudre de ratatinage</t>
+  </si>
+  <si>
+    <t>200.000</t>
+  </si>
+  <si>
+    <t>Creme furoncles</t>
+  </si>
+  <si>
+    <t>400.000</t>
+  </si>
+  <si>
+    <t>Gaz de paix</t>
+  </si>
+  <si>
+    <t>150.000</t>
+  </si>
+  <si>
+    <t>Gaz pour voler</t>
+  </si>
+  <si>
+    <t>300.000</t>
+  </si>
+  <si>
+    <t>Poudre de Souffle</t>
+  </si>
+  <si>
+    <t>250.000</t>
+  </si>
+  <si>
+    <t>Creme morte</t>
+  </si>
+  <si>
+    <t>Poudre de confusion</t>
+  </si>
+  <si>
+    <t>500.000</t>
+  </si>
+  <si>
+    <t>Creme de ganda</t>
+  </si>
+  <si>
+    <t>6000.000</t>
+  </si>
+  <si>
+    <t>Feuille morte</t>
+  </si>
+  <si>
+    <t>700.000</t>
+  </si>
+  <si>
+    <t>Prix_Onguent</t>
+  </si>
+  <si>
+    <t>Nom_Onguent</t>
+  </si>
+  <si>
+    <t>Onguent</t>
+  </si>
+  <si>
+    <t>Onguent_en_Stock</t>
+  </si>
+  <si>
+    <t>ID_Onguent_en_Stock</t>
+  </si>
+  <si>
+    <t>Quantite_Onguent</t>
+  </si>
+  <si>
+    <t>Nom_Personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personne </t>
+  </si>
+  <si>
+    <t>Potion de ratatinage</t>
+  </si>
+  <si>
+    <t>350.000</t>
+  </si>
+  <si>
+    <t>Valider</t>
+  </si>
+  <si>
+    <t>Potion furoncles</t>
+  </si>
+  <si>
+    <t>Filtre de paix</t>
+  </si>
+  <si>
+    <t>450.000</t>
+  </si>
+  <si>
+    <t>Potion de vol</t>
+  </si>
+  <si>
+    <t>Souffle du dragon</t>
+  </si>
+  <si>
+    <t>Filtre de mort vivante</t>
+  </si>
+  <si>
+    <t>Potion de confusion</t>
+  </si>
+  <si>
+    <t>Potion de ganda</t>
+  </si>
+  <si>
+    <t>8500.000</t>
+  </si>
+  <si>
+    <t>Amortentia</t>
+  </si>
+  <si>
+    <t>ID_Potion</t>
+  </si>
+  <si>
+    <t>Nom_Potion</t>
+  </si>
+  <si>
+    <t>Prix_Potion</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Valider_Potion</t>
+  </si>
+  <si>
+    <t>Potion</t>
+  </si>
+  <si>
+    <t>Non traitée</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>Terminée</t>
+  </si>
+  <si>
+    <t>Statut_Progression</t>
+  </si>
+  <si>
+    <t>Progression</t>
+  </si>
+  <si>
+    <t>Fiole</t>
+  </si>
+  <si>
+    <t>Erlenmeyer</t>
+  </si>
+  <si>
+    <t>10.000</t>
+  </si>
+  <si>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>Marmite</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>2.000</t>
+  </si>
+  <si>
+    <t>Nom_Recipient</t>
+  </si>
+  <si>
+    <t>Contenance</t>
+  </si>
+  <si>
+    <t>Prix_Recipient</t>
+  </si>
+  <si>
+    <t>Recipient</t>
+  </si>
+  <si>
+    <t>ID_Recipient_en_Stock</t>
+  </si>
+  <si>
+    <t>Recipient_en_Stock</t>
+  </si>
+  <si>
+    <t>Se_Compose</t>
+  </si>
+  <si>
+    <t>ID_Stock_Potion</t>
+  </si>
+  <si>
+    <t>Quantite_Potion</t>
+  </si>
+  <si>
+    <t>Stock_Potion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +764,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +837,96 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDF41C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5B22B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3DEBA9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB9B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7416F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7EC52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCA92CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBDD8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -379,7 +940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -436,12 +997,91 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCBDD8B"/>
+      <color rgb="FFCA92CE"/>
+      <color rgb="FFC7EC52"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFB7F8FF"/>
+      <color rgb="FFD7416F"/>
+      <color rgb="FFFFB9B9"/>
+      <color rgb="FF3DEBA9"/>
+      <color rgb="FFF5B22B"/>
+      <color rgb="FFDF41C8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -716,25 +1356,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.140625" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1011,6 +1652,15 @@
       <c r="G10" s="9">
         <v>11</v>
       </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -1034,6 +1684,15 @@
       <c r="G11" s="9">
         <v>12</v>
       </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -1057,6 +1716,15 @@
       <c r="G12" s="9">
         <v>13</v>
       </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>3</v>
+      </c>
+      <c r="K12" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -1080,6 +1748,15 @@
       <c r="G13" s="9">
         <v>14</v>
       </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>4</v>
+      </c>
+      <c r="K13" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1102,6 +1779,15 @@
       </c>
       <c r="G14" s="9">
         <v>15</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <v>5</v>
+      </c>
+      <c r="K14" s="11">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1126,6 +1812,15 @@
       <c r="G15" s="9">
         <v>11</v>
       </c>
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <v>6</v>
+      </c>
+      <c r="K15" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -1149,8 +1844,17 @@
       <c r="G16" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>7</v>
+      </c>
+      <c r="K16" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>8</v>
       </c>
@@ -1172,8 +1876,17 @@
       <c r="G17" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>8</v>
+      </c>
+      <c r="K17" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>9</v>
       </c>
@@ -1195,8 +1908,17 @@
       <c r="G18" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
+        <v>9</v>
+      </c>
+      <c r="K18" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>10</v>
       </c>
@@ -1218,8 +1940,17 @@
       <c r="G19" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11">
+        <v>10</v>
+      </c>
+      <c r="K19" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1229,8 +1960,11 @@
       <c r="G20" s="18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>58</v>
       </c>
@@ -1247,7 +1981,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>53</v>
       </c>
@@ -1257,6 +1991,245 @@
       <c r="C22" s="15" t="s">
         <v>56</v>
       </c>
+      <c r="E22" s="18">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>1</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18">
+        <v>2</v>
+      </c>
+      <c r="G23" s="26">
+        <v>2</v>
+      </c>
+      <c r="H23" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>1</v>
+      </c>
+      <c r="B24" s="16">
+        <v>2</v>
+      </c>
+      <c r="C24" s="16">
+        <v>2</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18">
+        <v>3</v>
+      </c>
+      <c r="G24" s="26">
+        <v>3</v>
+      </c>
+      <c r="H24" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>1</v>
+      </c>
+      <c r="B25" s="16">
+        <v>3</v>
+      </c>
+      <c r="C25" s="16">
+        <v>3</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18">
+        <v>4</v>
+      </c>
+      <c r="G25" s="26">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>1</v>
+      </c>
+      <c r="B26" s="16">
+        <v>4</v>
+      </c>
+      <c r="C26" s="16">
+        <v>4</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18">
+        <v>5</v>
+      </c>
+      <c r="G26" s="26">
+        <v>2</v>
+      </c>
+      <c r="H26" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>1</v>
+      </c>
+      <c r="B27" s="16">
+        <v>5</v>
+      </c>
+      <c r="C27" s="16">
+        <v>5</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18">
+        <v>6</v>
+      </c>
+      <c r="G27" s="26">
+        <v>3</v>
+      </c>
+      <c r="H27" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16">
+        <v>6</v>
+      </c>
+      <c r="C28" s="16">
+        <v>6</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18">
+        <v>7</v>
+      </c>
+      <c r="G28" s="26">
+        <v>1</v>
+      </c>
+      <c r="H28" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>1</v>
+      </c>
+      <c r="B29" s="16">
+        <v>7</v>
+      </c>
+      <c r="C29" s="16">
+        <v>5</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18">
+        <v>8</v>
+      </c>
+      <c r="G29" s="26">
+        <v>2</v>
+      </c>
+      <c r="H29" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>1</v>
+      </c>
+      <c r="B30" s="16">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16">
+        <v>4</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18">
+        <v>9</v>
+      </c>
+      <c r="G30" s="26">
+        <v>3</v>
+      </c>
+      <c r="H30" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>1</v>
+      </c>
+      <c r="B31" s="16">
+        <v>9</v>
+      </c>
+      <c r="C31" s="16">
+        <v>3</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
+      <c r="F31" s="18">
+        <v>10</v>
+      </c>
+      <c r="G31" s="26">
+        <v>1</v>
+      </c>
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>1</v>
+      </c>
+      <c r="B32" s="16">
+        <v>10</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
@@ -1415,10 +2388,10 @@
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1429,13 +2402,13 @@
         <v>73</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>76</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>76</v>
@@ -1739,7 +2712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>3</v>
       </c>
@@ -1753,7 +2726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>4</v>
       </c>
@@ -1767,7 +2740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>5</v>
       </c>
@@ -1775,7 +2748,2730 @@
         <v>7</v>
       </c>
     </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="31">
+        <v>10</v>
+      </c>
+      <c r="B71" s="31">
+        <v>1</v>
+      </c>
+      <c r="C71" s="31">
+        <v>1</v>
+      </c>
+      <c r="E71" s="27">
+        <v>1</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G71" s="27">
+        <v>611349913</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="31">
+        <v>5</v>
+      </c>
+      <c r="B72" s="31">
+        <v>2</v>
+      </c>
+      <c r="C72" s="31">
+        <v>6</v>
+      </c>
+      <c r="E72" s="27">
+        <v>2</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" s="27">
+        <v>633564897</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="31">
+        <v>3</v>
+      </c>
+      <c r="B73" s="31">
+        <v>3</v>
+      </c>
+      <c r="C73" s="31">
+        <v>1</v>
+      </c>
+      <c r="E73" s="27">
+        <v>3</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G73" s="27">
+        <v>613457865</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="31">
+        <v>1</v>
+      </c>
+      <c r="B74" s="31">
+        <v>3</v>
+      </c>
+      <c r="C74" s="31">
+        <v>5</v>
+      </c>
+      <c r="E74" s="27">
+        <v>4</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" s="27">
+        <v>632659848</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="31">
+        <v>10</v>
+      </c>
+      <c r="B75" s="31">
+        <v>3</v>
+      </c>
+      <c r="C75" s="31">
+        <v>6</v>
+      </c>
+      <c r="E75" s="27">
+        <v>5</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" s="27">
+        <v>696857412</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="31">
+        <v>1</v>
+      </c>
+      <c r="B76" s="31">
+        <v>3</v>
+      </c>
+      <c r="C76" s="31">
+        <v>8</v>
+      </c>
+      <c r="E76" s="27">
+        <v>6</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G76" s="27">
+        <v>636251458</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="31">
+        <v>2</v>
+      </c>
+      <c r="B77" s="31">
+        <v>4</v>
+      </c>
+      <c r="C77" s="31">
+        <v>1</v>
+      </c>
+      <c r="E77" s="27">
+        <v>7</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" s="27">
+        <v>632549815</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="31">
+        <v>8</v>
+      </c>
+      <c r="B78" s="31">
+        <v>4</v>
+      </c>
+      <c r="C78" s="31">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="31">
+        <v>10</v>
+      </c>
+      <c r="B79" s="31">
+        <v>5</v>
+      </c>
+      <c r="C79" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="31">
+        <v>10</v>
+      </c>
+      <c r="B80" s="31">
+        <v>5</v>
+      </c>
+      <c r="C80" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="31">
+        <v>400</v>
+      </c>
+      <c r="B81" s="31">
+        <v>5</v>
+      </c>
+      <c r="C81" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="31">
+        <v>10</v>
+      </c>
+      <c r="B82" s="31">
+        <v>6</v>
+      </c>
+      <c r="C82" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="31">
+        <v>2</v>
+      </c>
+      <c r="B83" s="31">
+        <v>9</v>
+      </c>
+      <c r="C83" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="31">
+        <v>25</v>
+      </c>
+      <c r="B84" s="31">
+        <v>11</v>
+      </c>
+      <c r="C84" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="31">
+        <v>1</v>
+      </c>
+      <c r="B85" s="31">
+        <v>11</v>
+      </c>
+      <c r="C85" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="31">
+        <v>50</v>
+      </c>
+      <c r="B86" s="31">
+        <v>12</v>
+      </c>
+      <c r="C86" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="31">
+        <v>5</v>
+      </c>
+      <c r="B87" s="31">
+        <v>12</v>
+      </c>
+      <c r="C87" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="31">
+        <v>4</v>
+      </c>
+      <c r="B88" s="31">
+        <v>13</v>
+      </c>
+      <c r="C88" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="31">
+        <v>10</v>
+      </c>
+      <c r="B89" s="31">
+        <v>15</v>
+      </c>
+      <c r="C89" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="31">
+        <v>2</v>
+      </c>
+      <c r="B90" s="31">
+        <v>15</v>
+      </c>
+      <c r="C90" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="31">
+        <v>2</v>
+      </c>
+      <c r="B91" s="31">
+        <v>16</v>
+      </c>
+      <c r="C91" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="31">
+        <v>3</v>
+      </c>
+      <c r="B92" s="31">
+        <v>16</v>
+      </c>
+      <c r="C92" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="31">
+        <v>2</v>
+      </c>
+      <c r="B93" s="31">
+        <v>18</v>
+      </c>
+      <c r="C93" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="31">
+        <v>10</v>
+      </c>
+      <c r="B94" s="31">
+        <v>18</v>
+      </c>
+      <c r="C94" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="31">
+        <v>10</v>
+      </c>
+      <c r="B95" s="31">
+        <v>19</v>
+      </c>
+      <c r="C95" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="31">
+        <v>10</v>
+      </c>
+      <c r="B96" s="31">
+        <v>19</v>
+      </c>
+      <c r="C96" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="31">
+        <v>2</v>
+      </c>
+      <c r="B97" s="31">
+        <v>20</v>
+      </c>
+      <c r="C97" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="31">
+        <v>8</v>
+      </c>
+      <c r="B98" s="31">
+        <v>21</v>
+      </c>
+      <c r="C98" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="31">
+        <v>3</v>
+      </c>
+      <c r="B99" s="31">
+        <v>21</v>
+      </c>
+      <c r="C99" s="31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D101" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K101" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G102" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H102" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="I102" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="J102" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="K102" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="L102" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="34">
+        <v>1</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D103" s="34">
+        <v>32</v>
+      </c>
+      <c r="E103" s="34">
+        <v>20</v>
+      </c>
+      <c r="G103" s="37">
+        <v>1</v>
+      </c>
+      <c r="H103" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I103" s="37">
+        <v>1</v>
+      </c>
+      <c r="J103" s="37">
+        <v>1</v>
+      </c>
+      <c r="K103" s="37">
+        <v>11</v>
+      </c>
+      <c r="L103" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="34">
+        <v>2</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104" s="34">
+        <v>19</v>
+      </c>
+      <c r="E104" s="34">
+        <v>10</v>
+      </c>
+      <c r="G104" s="37">
+        <v>2</v>
+      </c>
+      <c r="H104" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I104" s="37">
+        <v>1</v>
+      </c>
+      <c r="J104" s="37">
+        <v>2</v>
+      </c>
+      <c r="K104" s="37">
+        <v>22</v>
+      </c>
+      <c r="L104" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="34">
+        <v>3</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" s="34">
+        <v>45</v>
+      </c>
+      <c r="E105" s="34">
+        <v>35</v>
+      </c>
+      <c r="G105" s="37">
+        <v>3</v>
+      </c>
+      <c r="H105" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I105" s="37">
+        <v>1</v>
+      </c>
+      <c r="J105" s="37">
+        <v>3</v>
+      </c>
+      <c r="K105" s="37">
+        <v>33</v>
+      </c>
+      <c r="L105" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="34">
+        <v>4</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="34">
+        <v>50</v>
+      </c>
+      <c r="E106" s="34">
+        <v>40</v>
+      </c>
+      <c r="G106" s="37">
+        <v>4</v>
+      </c>
+      <c r="H106" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I106" s="37">
+        <v>1</v>
+      </c>
+      <c r="J106" s="37">
+        <v>4</v>
+      </c>
+      <c r="K106" s="37">
+        <v>44</v>
+      </c>
+      <c r="L106" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="34">
+        <v>5</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="34">
+        <v>40</v>
+      </c>
+      <c r="E107" s="34">
+        <v>32</v>
+      </c>
+      <c r="G107" s="37">
+        <v>5</v>
+      </c>
+      <c r="H107" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I107" s="37">
+        <v>1</v>
+      </c>
+      <c r="J107" s="37">
+        <v>5</v>
+      </c>
+      <c r="K107" s="37">
+        <v>52</v>
+      </c>
+      <c r="L107" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="34">
+        <v>6</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="34">
+        <v>10</v>
+      </c>
+      <c r="E108" s="34">
+        <v>6</v>
+      </c>
+      <c r="G108" s="37">
+        <v>6</v>
+      </c>
+      <c r="H108" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I108" s="37">
+        <v>1</v>
+      </c>
+      <c r="J108" s="37">
+        <v>6</v>
+      </c>
+      <c r="K108" s="37">
+        <v>15</v>
+      </c>
+      <c r="L108" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="34">
+        <v>7</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" s="34">
+        <v>150</v>
+      </c>
+      <c r="E109" s="34">
+        <v>130</v>
+      </c>
+      <c r="G109" s="37">
+        <v>7</v>
+      </c>
+      <c r="H109" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I109" s="37">
+        <v>1</v>
+      </c>
+      <c r="J109" s="37">
+        <v>7</v>
+      </c>
+      <c r="K109" s="37">
+        <v>20</v>
+      </c>
+      <c r="L109" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="34">
+        <v>8</v>
+      </c>
+      <c r="B110" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" s="34">
+        <v>50</v>
+      </c>
+      <c r="E110" s="34">
+        <v>38</v>
+      </c>
+      <c r="G110" s="37">
+        <v>8</v>
+      </c>
+      <c r="H110" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I110" s="37">
+        <v>1</v>
+      </c>
+      <c r="J110" s="37">
+        <v>8</v>
+      </c>
+      <c r="K110" s="37">
+        <v>30</v>
+      </c>
+      <c r="L110" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="34">
+        <v>9</v>
+      </c>
+      <c r="B111" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" s="34">
+        <v>62</v>
+      </c>
+      <c r="E111" s="34">
+        <v>50</v>
+      </c>
+      <c r="G111" s="37">
+        <v>9</v>
+      </c>
+      <c r="H111" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I111" s="37">
+        <v>1</v>
+      </c>
+      <c r="J111" s="37">
+        <v>9</v>
+      </c>
+      <c r="K111" s="37">
+        <v>27</v>
+      </c>
+      <c r="L111" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="34">
+        <v>10</v>
+      </c>
+      <c r="B112" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="34">
+        <v>48</v>
+      </c>
+      <c r="E112" s="34">
+        <v>40</v>
+      </c>
+      <c r="G112" s="37">
+        <v>10</v>
+      </c>
+      <c r="H112" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I112" s="37">
+        <v>1</v>
+      </c>
+      <c r="J112" s="37">
+        <v>10</v>
+      </c>
+      <c r="K112" s="37">
+        <v>14</v>
+      </c>
+      <c r="L112" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="34">
+        <v>11</v>
+      </c>
+      <c r="B113" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" s="34">
+        <v>80</v>
+      </c>
+      <c r="E113" s="34">
+        <v>70</v>
+      </c>
+      <c r="G113" s="37">
+        <v>11</v>
+      </c>
+      <c r="H113" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I113" s="37">
+        <v>1</v>
+      </c>
+      <c r="J113" s="37">
+        <v>11</v>
+      </c>
+      <c r="K113" s="37">
+        <v>11</v>
+      </c>
+      <c r="L113" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="34">
+        <v>12</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" s="34">
+        <v>60</v>
+      </c>
+      <c r="E114" s="34">
+        <v>52</v>
+      </c>
+      <c r="G114" s="37">
+        <v>12</v>
+      </c>
+      <c r="H114" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I114" s="37">
+        <v>1</v>
+      </c>
+      <c r="J114" s="37">
+        <v>12</v>
+      </c>
+      <c r="K114" s="37">
+        <v>15</v>
+      </c>
+      <c r="L114" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="34">
+        <v>13</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" s="34">
+        <v>46</v>
+      </c>
+      <c r="E115" s="34">
+        <v>40</v>
+      </c>
+      <c r="G115" s="37">
+        <v>13</v>
+      </c>
+      <c r="H115" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I115" s="37">
+        <v>1</v>
+      </c>
+      <c r="J115" s="37">
+        <v>13</v>
+      </c>
+      <c r="K115" s="37">
+        <v>13</v>
+      </c>
+      <c r="L115" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="34">
+        <v>14</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" s="34">
+        <v>20</v>
+      </c>
+      <c r="E116" s="34">
+        <v>15</v>
+      </c>
+      <c r="G116" s="37">
+        <v>14</v>
+      </c>
+      <c r="H116" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I116" s="37">
+        <v>1</v>
+      </c>
+      <c r="J116" s="37">
+        <v>14</v>
+      </c>
+      <c r="K116" s="37">
+        <v>14</v>
+      </c>
+      <c r="L116" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="34">
+        <v>15</v>
+      </c>
+      <c r="B117" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D117" s="34">
+        <v>35</v>
+      </c>
+      <c r="E117" s="34">
+        <v>28</v>
+      </c>
+      <c r="G117" s="37">
+        <v>15</v>
+      </c>
+      <c r="H117" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I117" s="37">
+        <v>1</v>
+      </c>
+      <c r="J117" s="37">
+        <v>15</v>
+      </c>
+      <c r="K117" s="37">
+        <v>15</v>
+      </c>
+      <c r="L117" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="34">
+        <v>16</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="34">
+        <v>25</v>
+      </c>
+      <c r="E118" s="34">
+        <v>20</v>
+      </c>
+      <c r="G118" s="37">
+        <v>16</v>
+      </c>
+      <c r="H118" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I118" s="37">
+        <v>1</v>
+      </c>
+      <c r="J118" s="37">
+        <v>16</v>
+      </c>
+      <c r="K118" s="37">
+        <v>16</v>
+      </c>
+      <c r="L118" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="34">
+        <v>17</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D119" s="34">
+        <v>37</v>
+      </c>
+      <c r="E119" s="34">
+        <v>29</v>
+      </c>
+      <c r="G119" s="37">
+        <v>17</v>
+      </c>
+      <c r="H119" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I119" s="37">
+        <v>1</v>
+      </c>
+      <c r="J119" s="37">
+        <v>17</v>
+      </c>
+      <c r="K119" s="37">
+        <v>18</v>
+      </c>
+      <c r="L119" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="34">
+        <v>18</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D120" s="34">
+        <v>36</v>
+      </c>
+      <c r="E120" s="34">
+        <v>30</v>
+      </c>
+      <c r="G120" s="37">
+        <v>18</v>
+      </c>
+      <c r="H120" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I120" s="37">
+        <v>1</v>
+      </c>
+      <c r="J120" s="37">
+        <v>18</v>
+      </c>
+      <c r="K120" s="37">
+        <v>25</v>
+      </c>
+      <c r="L120" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="34">
+        <v>19</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D121" s="34">
+        <v>40</v>
+      </c>
+      <c r="E121" s="34">
+        <v>28</v>
+      </c>
+      <c r="G121" s="37">
+        <v>19</v>
+      </c>
+      <c r="H121" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I121" s="37">
+        <v>1</v>
+      </c>
+      <c r="J121" s="37">
+        <v>19</v>
+      </c>
+      <c r="K121" s="37">
+        <v>35</v>
+      </c>
+      <c r="L121" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="34">
+        <v>20</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D122" s="34">
+        <v>34</v>
+      </c>
+      <c r="E122" s="34">
+        <v>28</v>
+      </c>
+      <c r="G122" s="37">
+        <v>20</v>
+      </c>
+      <c r="H122" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I122" s="37">
+        <v>1</v>
+      </c>
+      <c r="J122" s="37">
+        <v>20</v>
+      </c>
+      <c r="K122" s="37">
+        <v>5</v>
+      </c>
+      <c r="L122" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="34">
+        <v>21</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D123" s="34">
+        <v>90</v>
+      </c>
+      <c r="E123" s="34">
+        <v>70</v>
+      </c>
+      <c r="G123" s="37">
+        <v>21</v>
+      </c>
+      <c r="H123" s="38">
+        <v>42823</v>
+      </c>
+      <c r="I123" s="37">
+        <v>1</v>
+      </c>
+      <c r="J123" s="37">
+        <v>21</v>
+      </c>
+      <c r="K123" s="37">
+        <v>1</v>
+      </c>
+      <c r="L123" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="34">
+        <v>22</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D124" s="34">
+        <v>0</v>
+      </c>
+      <c r="E124" s="34">
+        <v>0</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="35"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C126" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G126" s="41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G127" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="H127" s="41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="39">
+        <v>1</v>
+      </c>
+      <c r="B128" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C128" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D128" s="39">
+        <v>1</v>
+      </c>
+      <c r="F128" s="42">
+        <v>1</v>
+      </c>
+      <c r="G128" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="H128" s="42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="39">
+        <v>2</v>
+      </c>
+      <c r="B129" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C129" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129" s="39">
+        <v>2</v>
+      </c>
+      <c r="F129" s="42">
+        <v>2</v>
+      </c>
+      <c r="G129" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="H129" s="42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="39">
+        <v>3</v>
+      </c>
+      <c r="B130" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D130" s="39">
+        <v>3</v>
+      </c>
+      <c r="F130" s="42">
+        <v>3</v>
+      </c>
+      <c r="G130" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="H130" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="39">
+        <v>4</v>
+      </c>
+      <c r="B131" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C131" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D131" s="39">
+        <v>4</v>
+      </c>
+      <c r="F131" s="42">
+        <v>4</v>
+      </c>
+      <c r="G131" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="H131" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="39">
+        <v>5</v>
+      </c>
+      <c r="B132" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D132" s="39">
+        <v>5</v>
+      </c>
+      <c r="F132" s="42">
+        <v>5</v>
+      </c>
+      <c r="G132" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="H132" s="42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="39">
+        <v>6</v>
+      </c>
+      <c r="B133" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D133" s="39">
+        <v>6</v>
+      </c>
+      <c r="F133" s="42">
+        <v>6</v>
+      </c>
+      <c r="G133" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="H133" s="42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="39">
+        <v>7</v>
+      </c>
+      <c r="B134" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C134" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D134" s="39">
+        <v>7</v>
+      </c>
+      <c r="F134" s="42">
+        <v>7</v>
+      </c>
+      <c r="G134" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="H134" s="42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="39">
+        <v>8</v>
+      </c>
+      <c r="B135" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D135" s="39">
+        <v>8</v>
+      </c>
+      <c r="F135" s="42">
+        <v>8</v>
+      </c>
+      <c r="G135" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="H135" s="42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="39">
+        <v>9</v>
+      </c>
+      <c r="B136" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D136" s="39">
+        <v>9</v>
+      </c>
+      <c r="F136" s="42">
+        <v>9</v>
+      </c>
+      <c r="G136" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="H136" s="42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="39">
+        <v>10</v>
+      </c>
+      <c r="B137" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D137" s="39">
+        <v>10</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C139" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F139" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B140" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E140" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="43">
+        <v>1</v>
+      </c>
+      <c r="B141" s="43">
+        <v>1</v>
+      </c>
+      <c r="C141" s="43">
+        <v>100</v>
+      </c>
+      <c r="E141" s="28">
+        <v>1</v>
+      </c>
+      <c r="F141" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="43">
+        <v>2</v>
+      </c>
+      <c r="B142" s="43">
+        <v>2</v>
+      </c>
+      <c r="C142" s="43">
+        <v>100</v>
+      </c>
+      <c r="E142" s="28">
+        <v>2</v>
+      </c>
+      <c r="F142" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="43">
+        <v>3</v>
+      </c>
+      <c r="B143" s="43">
+        <v>3</v>
+      </c>
+      <c r="C143" s="43">
+        <v>100</v>
+      </c>
+      <c r="E143" s="28">
+        <v>3</v>
+      </c>
+      <c r="F143" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="43">
+        <v>4</v>
+      </c>
+      <c r="B144" s="43">
+        <v>4</v>
+      </c>
+      <c r="C144" s="43">
+        <v>100</v>
+      </c>
+      <c r="E144" s="28">
+        <v>4</v>
+      </c>
+      <c r="F144" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="43">
+        <v>5</v>
+      </c>
+      <c r="B145" s="43">
+        <v>5</v>
+      </c>
+      <c r="C145" s="43">
+        <v>100</v>
+      </c>
+      <c r="E145" s="28">
+        <v>5</v>
+      </c>
+      <c r="F145" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="43">
+        <v>6</v>
+      </c>
+      <c r="B146" s="43">
+        <v>6</v>
+      </c>
+      <c r="C146" s="43">
+        <v>100</v>
+      </c>
+      <c r="E146" s="28">
+        <v>6</v>
+      </c>
+      <c r="F146" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="43">
+        <v>7</v>
+      </c>
+      <c r="B147" s="43">
+        <v>5</v>
+      </c>
+      <c r="C147" s="43">
+        <v>100</v>
+      </c>
+      <c r="E147" s="28">
+        <v>7</v>
+      </c>
+      <c r="F147" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="43">
+        <v>8</v>
+      </c>
+      <c r="B148" s="43">
+        <v>4</v>
+      </c>
+      <c r="C148" s="43">
+        <v>100</v>
+      </c>
+      <c r="E148" s="28">
+        <v>8</v>
+      </c>
+      <c r="F148" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="E149" s="28">
+        <v>9</v>
+      </c>
+      <c r="F149" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E150" s="28">
+        <v>10</v>
+      </c>
+      <c r="F150" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E151" s="28">
+        <v>11</v>
+      </c>
+      <c r="F151" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E152" s="28">
+        <v>12</v>
+      </c>
+      <c r="F152" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E153" s="28">
+        <v>13</v>
+      </c>
+      <c r="F153" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E154" s="28">
+        <v>14</v>
+      </c>
+      <c r="F154" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E155" s="28">
+        <v>15</v>
+      </c>
+      <c r="F155" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D157" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="J157" s="47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B158" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C158" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D158" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E158" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="F158" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G158" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I158" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="J158" s="47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="46">
+        <v>1</v>
+      </c>
+      <c r="B159" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C159" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D159" s="46">
+        <v>40</v>
+      </c>
+      <c r="E159" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F159" s="46">
+        <v>1</v>
+      </c>
+      <c r="G159" s="46">
+        <v>1</v>
+      </c>
+      <c r="I159" s="48">
+        <v>1</v>
+      </c>
+      <c r="J159" s="48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="46">
+        <v>2</v>
+      </c>
+      <c r="B160" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C160" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D160" s="46">
+        <v>45</v>
+      </c>
+      <c r="E160" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F160" s="46">
+        <v>1</v>
+      </c>
+      <c r="G160" s="46">
+        <v>2</v>
+      </c>
+      <c r="I160" s="48">
+        <v>2</v>
+      </c>
+      <c r="J160" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="46">
+        <v>3</v>
+      </c>
+      <c r="B161" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="C161" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D161" s="46">
+        <v>35</v>
+      </c>
+      <c r="E161" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F161" s="46">
+        <v>2</v>
+      </c>
+      <c r="G161" s="46">
+        <v>3</v>
+      </c>
+      <c r="I161" s="48">
+        <v>3</v>
+      </c>
+      <c r="J161" s="48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="46">
+        <v>4</v>
+      </c>
+      <c r="B162" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C162" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D162" s="46">
+        <v>50</v>
+      </c>
+      <c r="E162" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F162" s="46">
+        <v>3</v>
+      </c>
+      <c r="G162" s="46">
+        <v>4</v>
+      </c>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="46">
+        <v>5</v>
+      </c>
+      <c r="B163" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C163" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D163" s="46">
+        <v>55</v>
+      </c>
+      <c r="E163" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F163" s="46">
+        <v>4</v>
+      </c>
+      <c r="G163" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="46">
+        <v>6</v>
+      </c>
+      <c r="B164" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C164" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" s="46">
+        <v>20</v>
+      </c>
+      <c r="E164" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F164" s="46">
+        <v>4</v>
+      </c>
+      <c r="G164" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="46">
+        <v>7</v>
+      </c>
+      <c r="B165" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C165" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="D165" s="46">
+        <v>60</v>
+      </c>
+      <c r="E165" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F165" s="46">
+        <v>5</v>
+      </c>
+      <c r="G165" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="46">
+        <v>8</v>
+      </c>
+      <c r="B166" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C166" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D166" s="46">
+        <v>15</v>
+      </c>
+      <c r="E166" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F166" s="46">
+        <v>1</v>
+      </c>
+      <c r="G166" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="46">
+        <v>9</v>
+      </c>
+      <c r="B167" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C167" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167" s="46">
+        <v>25</v>
+      </c>
+      <c r="E167" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F167" s="46">
+        <v>5</v>
+      </c>
+      <c r="G167" s="46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C169" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="I169" s="51" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B170" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C170" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="D170" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="F170" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="G170" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H170" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I170" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="50">
+        <v>1</v>
+      </c>
+      <c r="B171" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="C171" s="50">
+        <v>2</v>
+      </c>
+      <c r="D171" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F171" s="52">
+        <v>1</v>
+      </c>
+      <c r="G171" s="52">
+        <v>200</v>
+      </c>
+      <c r="H171" s="52">
+        <v>1</v>
+      </c>
+      <c r="I171" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="50">
+        <v>2</v>
+      </c>
+      <c r="B172" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C172" s="50">
+        <v>3</v>
+      </c>
+      <c r="D172" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="F172" s="52">
+        <v>2</v>
+      </c>
+      <c r="G172" s="52">
+        <v>100</v>
+      </c>
+      <c r="H172" s="52">
+        <v>2</v>
+      </c>
+      <c r="I172" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="50">
+        <v>3</v>
+      </c>
+      <c r="B173" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C173" s="50">
+        <v>4</v>
+      </c>
+      <c r="D173" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F173" s="52">
+        <v>3</v>
+      </c>
+      <c r="G173" s="52">
+        <v>100</v>
+      </c>
+      <c r="H173" s="52">
+        <v>3</v>
+      </c>
+      <c r="I173" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="50">
+        <v>4</v>
+      </c>
+      <c r="B174" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="C174" s="50">
+        <v>10</v>
+      </c>
+      <c r="D174" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F174" s="52">
+        <v>4</v>
+      </c>
+      <c r="G174" s="52">
+        <v>100</v>
+      </c>
+      <c r="H174" s="52">
+        <v>4</v>
+      </c>
+      <c r="I174" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="50">
+        <v>5</v>
+      </c>
+      <c r="B175" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C175" s="50">
+        <v>1</v>
+      </c>
+      <c r="D175" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="F175" s="52">
+        <v>5</v>
+      </c>
+      <c r="G175" s="52">
+        <v>200</v>
+      </c>
+      <c r="H175" s="52">
+        <v>5</v>
+      </c>
+      <c r="I175" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="F176" s="52">
+        <v>6</v>
+      </c>
+      <c r="G176" s="52">
+        <v>200</v>
+      </c>
+      <c r="H176" s="52">
+        <v>6</v>
+      </c>
+      <c r="I176" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F177" s="52">
+        <v>7</v>
+      </c>
+      <c r="G177" s="52">
+        <v>200</v>
+      </c>
+      <c r="H177" s="52">
+        <v>7</v>
+      </c>
+      <c r="I177" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F178" s="52">
+        <v>8</v>
+      </c>
+      <c r="G178" s="52">
+        <v>100</v>
+      </c>
+      <c r="H178" s="52">
+        <v>4</v>
+      </c>
+      <c r="I178" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F179" s="52">
+        <v>9</v>
+      </c>
+      <c r="G179" s="52">
+        <v>100</v>
+      </c>
+      <c r="H179" s="52">
+        <v>2</v>
+      </c>
+      <c r="I179" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F180" s="52">
+        <v>10</v>
+      </c>
+      <c r="G180" s="52">
+        <v>100</v>
+      </c>
+      <c r="H180" s="52">
+        <v>3</v>
+      </c>
+      <c r="I180" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C182" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G182" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="B183" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C183" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E183" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="F183" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="G183" s="55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="54">
+        <v>4</v>
+      </c>
+      <c r="B184" s="54">
+        <v>1</v>
+      </c>
+      <c r="C184" s="54">
+        <v>1</v>
+      </c>
+      <c r="E184" s="56">
+        <v>1</v>
+      </c>
+      <c r="F184" s="56">
+        <v>100</v>
+      </c>
+      <c r="G184" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="54">
+        <v>8</v>
+      </c>
+      <c r="B185" s="54">
+        <v>1</v>
+      </c>
+      <c r="C185" s="54">
+        <v>3</v>
+      </c>
+      <c r="E185" s="56">
+        <v>2</v>
+      </c>
+      <c r="F185" s="56">
+        <v>100</v>
+      </c>
+      <c r="G185" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="54">
+        <v>2</v>
+      </c>
+      <c r="B186" s="54">
+        <v>1</v>
+      </c>
+      <c r="C186" s="54">
+        <v>9</v>
+      </c>
+      <c r="E186" s="56">
+        <v>3</v>
+      </c>
+      <c r="F186" s="56">
+        <v>100</v>
+      </c>
+      <c r="G186" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="54">
+        <v>2</v>
+      </c>
+      <c r="B187" s="54">
+        <v>1</v>
+      </c>
+      <c r="C187" s="54">
+        <v>16</v>
+      </c>
+      <c r="E187" s="56">
+        <v>4</v>
+      </c>
+      <c r="F187" s="56">
+        <v>100</v>
+      </c>
+      <c r="G187" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="54">
+        <v>3</v>
+      </c>
+      <c r="B188" s="54">
+        <v>1</v>
+      </c>
+      <c r="C188" s="54">
+        <v>18</v>
+      </c>
+      <c r="E188" s="56">
+        <v>5</v>
+      </c>
+      <c r="F188" s="56">
+        <v>75</v>
+      </c>
+      <c r="G188" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="54">
+        <v>6</v>
+      </c>
+      <c r="B189" s="54">
+        <v>2</v>
+      </c>
+      <c r="C189" s="54">
+        <v>6</v>
+      </c>
+      <c r="E189" s="56">
+        <v>6</v>
+      </c>
+      <c r="F189" s="56">
+        <v>100</v>
+      </c>
+      <c r="G189" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="54">
+        <v>1</v>
+      </c>
+      <c r="B190" s="54">
+        <v>2</v>
+      </c>
+      <c r="C190" s="54">
+        <v>10</v>
+      </c>
+      <c r="E190" s="56">
+        <v>7</v>
+      </c>
+      <c r="F190" s="56">
+        <v>100</v>
+      </c>
+      <c r="G190" s="56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="54">
+        <v>1</v>
+      </c>
+      <c r="B191" s="54">
+        <v>2</v>
+      </c>
+      <c r="C191" s="54">
+        <v>18</v>
+      </c>
+      <c r="E191" s="56">
+        <v>8</v>
+      </c>
+      <c r="F191" s="56">
+        <v>5</v>
+      </c>
+      <c r="G191" s="56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="54">
+        <v>1</v>
+      </c>
+      <c r="B192" s="54">
+        <v>3</v>
+      </c>
+      <c r="C192" s="54">
+        <v>11</v>
+      </c>
+      <c r="E192" s="56">
+        <v>9</v>
+      </c>
+      <c r="F192" s="56">
+        <v>100</v>
+      </c>
+      <c r="G192" s="56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="54">
+        <v>4</v>
+      </c>
+      <c r="B193" s="54">
+        <v>3</v>
+      </c>
+      <c r="C193" s="54">
+        <v>12</v>
+      </c>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="54">
+        <v>1</v>
+      </c>
+      <c r="B194" s="54">
+        <v>3</v>
+      </c>
+      <c r="C194" s="54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="54">
+        <v>10</v>
+      </c>
+      <c r="B195" s="54">
+        <v>4</v>
+      </c>
+      <c r="C195" s="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="54">
+        <v>8</v>
+      </c>
+      <c r="B196" s="54">
+        <v>4</v>
+      </c>
+      <c r="C196" s="54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="54">
+        <v>1</v>
+      </c>
+      <c r="B197" s="54">
+        <v>4</v>
+      </c>
+      <c r="C197" s="54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="54">
+        <v>50</v>
+      </c>
+      <c r="B198" s="54">
+        <v>5</v>
+      </c>
+      <c r="C198" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="54">
+        <v>4</v>
+      </c>
+      <c r="B199" s="54">
+        <v>5</v>
+      </c>
+      <c r="C199" s="54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="54">
+        <v>5</v>
+      </c>
+      <c r="B200" s="54">
+        <v>6</v>
+      </c>
+      <c r="C200" s="54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="54">
+        <v>1</v>
+      </c>
+      <c r="B201" s="54">
+        <v>6</v>
+      </c>
+      <c r="C201" s="54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="54">
+        <v>3</v>
+      </c>
+      <c r="B202" s="54">
+        <v>6</v>
+      </c>
+      <c r="C202" s="54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="54">
+        <v>1</v>
+      </c>
+      <c r="B203" s="54">
+        <v>7</v>
+      </c>
+      <c r="C203" s="54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="54">
+        <v>5</v>
+      </c>
+      <c r="B204" s="54">
+        <v>7</v>
+      </c>
+      <c r="C204" s="54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="54">
+        <v>2</v>
+      </c>
+      <c r="B205" s="54">
+        <v>7</v>
+      </c>
+      <c r="C205" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="54">
+        <v>3</v>
+      </c>
+      <c r="B206" s="54">
+        <v>7</v>
+      </c>
+      <c r="C206" s="54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="54">
+        <v>1</v>
+      </c>
+      <c r="B207" s="54">
+        <v>8</v>
+      </c>
+      <c r="C207" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="54">
+        <v>500</v>
+      </c>
+      <c r="B208" s="54">
+        <v>8</v>
+      </c>
+      <c r="C208" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="54">
+        <v>30</v>
+      </c>
+      <c r="B209" s="54">
+        <v>8</v>
+      </c>
+      <c r="C209" s="54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="54">
+        <v>100</v>
+      </c>
+      <c r="B210" s="54">
+        <v>8</v>
+      </c>
+      <c r="C210" s="54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="54">
+        <v>10</v>
+      </c>
+      <c r="B211" s="54">
+        <v>8</v>
+      </c>
+      <c r="C211" s="54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="54">
+        <v>15</v>
+      </c>
+      <c r="B212" s="54">
+        <v>9</v>
+      </c>
+      <c r="C212" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="54">
+        <v>15</v>
+      </c>
+      <c r="B213" s="54">
+        <v>9</v>
+      </c>
+      <c r="C213" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="54">
+        <v>2</v>
+      </c>
+      <c r="B214" s="54">
+        <v>9</v>
+      </c>
+      <c r="C214" s="54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="54">
+        <v>4</v>
+      </c>
+      <c r="B215" s="54">
+        <v>9</v>
+      </c>
+      <c r="C215" s="54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>